--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub_Old\scraper_SUNEDU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Scraper_SUNEDU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E0CA6-8C05-44DE-88BE-672F7B427826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507B43-5B1A-469B-B50E-FF9FFE8273EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,32 +372,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>70313538</v>
+        <v>46432891</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>71696567</v>
+        <v>70313538</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>71696567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>72675329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>32220818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>32224811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>75947795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>72653667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>70908428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>70075782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>70054853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>77177005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>71849919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>70326619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>70219852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>72674007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>71474354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>74832843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>76910960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>70793499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>74396651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>73505639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>74237612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>71269607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>72765920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>77225589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>75904549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>71594406</v>
       </c>
     </row>
   </sheetData>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Scraper_SUNEDU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507B43-5B1A-469B-B50E-FF9FFE8273EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9110D-3696-4F21-949B-65C02170EB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,12 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,153 +376,156 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>46432891</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>70313538</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>71696567</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>72675329</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>32220818</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>32224811</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>75947795</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>72653667</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>70908428</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>70075782</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>70054853</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>77177005</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>71849919</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>70326619</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>70219852</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>72674007</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>71474354</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>74832843</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>76910960</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>70793499</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>74396651</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>73505639</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>74237612</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>71269607</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>72765920</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>77225589</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>75904549</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>71594406</v>
       </c>
     </row>
